--- a/S1/Expression/Dossiers de synthèse/Internet qui a changé le monde du travail/Tri Articles.xlsx
+++ b/S1/Expression/Dossiers de synthèse/Internet qui a changé le monde du travail/Tri Articles.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\S1\Expression\Dossiers de synthèse\Internet qui a changé le monde du travail\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDDF51D-5936-448F-92C0-D51E67F440A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="-11784" yWindow="3840" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,122 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Métiers sur Internet (disparition de certains métiers, suivi des travailleurs)</t>
+  </si>
+  <si>
+    <t>Changement des relations interpersonnelles au travail</t>
+  </si>
+  <si>
+    <t>http://internetvspresse.canalblog.com/</t>
+  </si>
+  <si>
+    <t>https://blog.mistertemp.com/emploi/10-metiers-voie-disparition/</t>
+  </si>
+  <si>
+    <t>Droit du travail en évolution (accès plus simple)</t>
+  </si>
+  <si>
+    <t>Documents les plus pertinents surlignés en jaune (fiabilité du site + nombre d'informations)</t>
+  </si>
+  <si>
+    <t>https://www.institutsapiens.fr/wp-content/uploads/2018/08/Note-impact-digital-sur-lemploi.pdf</t>
+  </si>
+  <si>
+    <t>https://www.blogdumoderateur.com/commitstrip-developpeur-humour-krds/</t>
+  </si>
+  <si>
+    <t>https://www.force-ouvriere.fr/l-employeur-peut-il-controler-l-utilisation-d-internet-au</t>
+  </si>
+  <si>
+    <t>https://www.lefigaro.fr/conjoncture/2017/06/13/20002-20170613ARTFIG00192-votre-emploi-est-il-menace-
+par-les-robots-un-site-internet-vous-repond.php</t>
+  </si>
+  <si>
+    <t>https://www.journaldunet.fr/management/guide-du-management/1441333-controle-acces-internet-
+par-employeur-historique-cnil/</t>
+  </si>
+  <si>
+    <t>https://www.cadremploi.fr/editorial/conseils/droit-du-travail/detail
+/article/internet-et-travail-que-dit-la-loi.html</t>
+  </si>
+  <si>
+    <t>https://www.journaldunet.com/management/guide-du-management/1200083-teletravail-le-
+teletravail-generalise-avec-le-2e-confinement/</t>
+  </si>
+  <si>
+    <t>https://www.leparisien.fr/economie/revolution-digitale-ces-professions-
+qui-vont-disparaitre-20-08-2018-7858812.php</t>
+  </si>
+  <si>
+    <t>https://www.lesechos.fr/tech-medias/intelligence-artificielle/les-cinq-metiers-
+les-plus-menaces-par-lintelligence-artificielle-137080</t>
+  </si>
+  <si>
+    <t>https://www.onisep.fr/Cap-vers-l-emploi/Recherche-d-emploi/
+Comment-trouver-un-emploi-sur-Internet</t>
+  </si>
+  <si>
+    <t>https://www.reussirmavie.net/Quels-sites-pour-trouver-un-emploi_a1343.html</t>
+  </si>
+  <si>
+    <t>https://www.lefigaro.fr/emploi/2017/01/17/
+09005-20170117ARTFIG00290-les-francais-cherchent-un-
+emploi-sur-internet-mais-le-trouvent-grace-a-leur-reseau.php</t>
+  </si>
+  <si>
+    <t>https://www.frenchweb.fr/etude-31-des-francais-
+ont-trouve-un-travail-grace-a-internet-60763/48543</t>
+  </si>
+  <si>
+    <t>https://www.welovetech.fr/le-top-5-des-series-sur-linformatique-et-
+les-nouvelles-technologiques-de-notre-equipe/</t>
+  </si>
+  <si>
+    <t>https://www.la-fabrique.fr/wp-content/uploads/2018/01/Dossier-p%C3%
+A9dagogique-num%C3%A9rique-emploi-et-travail.pdf</t>
+  </si>
+  <si>
+    <t>https://larevuedesmedias.ina.fr/du-minitel-linternet</t>
+  </si>
+  <si>
+    <t>https://lewebpedagogique.com/btsayvetot/2015/06/11/
+internet-et-les-relations-interpersonnelles/</t>
+  </si>
+  <si>
+    <t>https://www.triode-mediation.com/les-impacts-du-confinement-dans-les-relations-interpersonnelles/</t>
+  </si>
+  <si>
+    <t>https://www.cairn.info/revue-reseaux1-2007-6-page-81.htm</t>
+  </si>
+  <si>
+    <t>https://core.ac.uk/download/pdf/130191856.pdf</t>
+  </si>
+  <si>
+    <t>https://archipel.uqam.ca/5030/1/M9831.pdf</t>
+  </si>
+  <si>
+    <t>https://clubrivesdemoselle.fr/evenement/webinaire-impact-du-
+confinement-sur-relations-interpersonnelles/</t>
+  </si>
+  <si>
+    <t>https://www.journaldunet.com/management/commercial/1185947-et-oui-les-nouvelles-technologies-
+influent-sur-les-relations-humaines-traditionnelles/</t>
+  </si>
+  <si>
+    <t>https://www.andlil.com/limpact-des-reseaux-sociaux-sur-les-entreprises-a-t-il-un-role-essentiel-sur-leur-image-165542.html</t>
+  </si>
+  <si>
+    <t>https://www.e-marketing.fr/Thematique/academie-1078/fiche-outils-10154/Ameliorer-ses-relations-interpersonnelles-325065.htm#</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +147,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,14 +235,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +584,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="74.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" customWidth="1"/>
+    <col min="3" max="3" width="70.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{ED095DAF-24E4-472B-BB79-D4476E77924F}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{8A2ED29E-21F0-4DD6-9A95-2D5B7E0C657B}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{1EFC8F6B-8624-42F9-B5AF-9E9216B6A0E2}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{59A74C7B-EFB5-48AC-9FD9-181C4911157C}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{C821E477-9A1C-4BDA-9DF8-A4A7E911E515}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{F325116A-50EF-4EC9-B9C2-FC087B9FB7D5}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{3C28108E-AB47-49C3-A3AF-8C4991791821}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{BFBD86D4-98F8-41FF-BADF-EE06C5FE76D6}"/>
+    <hyperlink ref="A3" r:id="rId9" xr:uid="{00830AB1-8CA0-4D4E-B79F-216E3C960CF9}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{24C2841E-64BC-4128-9156-6E7031372E1F}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{D213FE21-01CA-47C3-8F57-C30206E3C45D}"/>
+    <hyperlink ref="B8" r:id="rId12" xr:uid="{E122056C-0E01-495E-9193-121A1C251BDC}"/>
+    <hyperlink ref="A9" r:id="rId13" xr:uid="{CB0938C5-AD39-4D6F-9D65-9852D4CBF1D8}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{0A50C486-2B97-4C05-95DF-F4B3D5599626}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{C43282BB-C03E-4FE8-9840-0C44FA226665}"/>
+    <hyperlink ref="C2" r:id="rId16" xr:uid="{AF770472-B90E-4241-AE30-6E9109F833EA}"/>
+    <hyperlink ref="C4" r:id="rId17" xr:uid="{A2A4A03A-F6DE-4504-A1BB-8F27732BAED0}"/>
+    <hyperlink ref="C7" r:id="rId18" xr:uid="{D22C528F-3371-488B-88B2-44DB32FC8977}"/>
+    <hyperlink ref="C8" r:id="rId19" xr:uid="{FA864799-C098-4426-A572-7BD002BEA85C}"/>
+    <hyperlink ref="A8" r:id="rId20" xr:uid="{F4DCFD85-38D7-48D2-BBC6-932ED37BCB57}"/>
+    <hyperlink ref="A4" r:id="rId21" xr:uid="{897BC14A-3E75-471D-B558-2D9D6F3A0A07}"/>
+    <hyperlink ref="C3" r:id="rId22" xr:uid="{DB68D628-F4BE-477B-A9EB-AEDF4F7E0955}"/>
+    <hyperlink ref="C5" r:id="rId23" xr:uid="{143ED5D7-C5E2-4CF7-8A12-BD157731E476}"/>
+    <hyperlink ref="C6" r:id="rId24" xr:uid="{655ED442-495B-4ED5-9BE8-7D544E6011E1}"/>
+    <hyperlink ref="C9" r:id="rId25" xr:uid="{BE81039A-D91D-4144-875F-8C2FBD12036B}"/>
+    <hyperlink ref="C10" r:id="rId26" xr:uid="{E9999B98-B660-4654-B9F4-BC8AEF2DFB4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
--- a/S1/Expression/Dossiers de synthèse/Internet qui a changé le monde du travail/Tri Articles.xlsx
+++ b/S1/Expression/Dossiers de synthèse/Internet qui a changé le monde du travail/Tri Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\S1\Expression\Dossiers de synthèse\Internet qui a changé le monde du travail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDDF51D-5936-448F-92C0-D51E67F440A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24270485-5E5B-4962-98A5-78597AF4ED83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-11784" yWindow="3840" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +698,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
